--- a/2023/02产品/SNC8x/01)竞品分析/00)竞品芯片分析/竞品与九音对比/ADI VS Soundec.xlsx
+++ b/2023/02产品/SNC8x/01)竞品分析/00)竞品芯片分析/竞品与九音对比/ADI VS Soundec.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86156\Desktop\TI&amp;ADI资料\新建文件夹\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\10 MRD\2023\02产品\SNC8x\01)竞品分析\00)竞品芯片分析\竞品与九音对比\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF2C73F-EECD-4A1F-9439-0F4D31ACBD55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E6E2C4-CEAA-4AFE-8C3D-62932A192143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="音频模数转换器" sheetId="1" r:id="rId1"/>
@@ -33,9 +33,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -43,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1698" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1698" uniqueCount="469">
   <si>
     <t>产品型号</t>
   </si>
@@ -1475,6 +1473,10 @@
   </si>
   <si>
     <t>cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1616,7 +1618,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1641,7 +1643,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="26" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1954,7 +1955,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2649,8 +2650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D08F960-4F06-4174-8D3D-6E3AA2B5E6C6}">
   <dimension ref="A1:T14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -3116,7 +3117,7 @@
         <v>AD1934</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>102</v>
+        <v>468</v>
       </c>
       <c r="C8" s="8">
         <v>3.6</v>
@@ -4470,7 +4471,7 @@
       <c r="L1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="16" t="s">
         <v>462</v>
       </c>
     </row>
@@ -4511,7 +4512,7 @@
       <c r="L2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="18"/>
+      <c r="M2" s="17"/>
     </row>
     <row r="3" spans="1:13" ht="14.4">
       <c r="A3" s="15" t="str">
@@ -4751,7 +4752,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="14.4" hidden="1">
-      <c r="A9" s="16" t="str">
+      <c r="A9" s="13" t="str">
         <f>HYPERLINK("https://www.analog.com/zh/ADAU1452#details", "ADAU1452")</f>
         <v>ADAU1452</v>
       </c>
@@ -5064,7 +5065,7 @@
       <c r="L16" t="s">
         <v>68</v>
       </c>
-      <c r="M16" s="19">
+      <c r="M16" s="18">
         <v>2.1</v>
       </c>
     </row>
@@ -8604,8 +8605,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -8673,7 +8674,7 @@
       <c r="Q1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="22" t="s">
+      <c r="R1" s="21" t="s">
         <v>467</v>
       </c>
     </row>
@@ -9325,7 +9326,7 @@
       </c>
     </row>
     <row r="14" spans="1:18" ht="14.4">
-      <c r="A14" s="20" t="str">
+      <c r="A14" s="19" t="str">
         <f>HYPERLINK("https://www.analog.com/zh/ADAU1401A#details", "ADAU1401A")</f>
         <v>ADAU1401A</v>
       </c>
@@ -9382,7 +9383,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="14.4">
-      <c r="A15" s="20" t="str">
+      <c r="A15" s="19" t="str">
         <f>HYPERLINK("https://www.analog.com/zh/ADAU1701#details", "ADAU1701")</f>
         <v>ADAU1701</v>
       </c>
@@ -9439,7 +9440,7 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="14.4">
-      <c r="A16" s="20" t="str">
+      <c r="A16" s="19" t="str">
         <f>HYPERLINK("https://www.analog.com/zh/ADAU1702#details", "ADAU1702")</f>
         <v>ADAU1702</v>
       </c>
@@ -9491,12 +9492,12 @@
       <c r="Q16" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="R16" s="19">
+      <c r="R16" s="18">
         <v>2.1</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="14.4">
-      <c r="A17" s="20" t="str">
+      <c r="A17" s="19" t="str">
         <f>HYPERLINK("https://www.analog.com/zh/ADAU1761#details", "ADAU1761")</f>
         <v>ADAU1761</v>
       </c>
@@ -9553,7 +9554,7 @@
       </c>
     </row>
     <row r="18" spans="1:18" ht="14.4">
-      <c r="A18" s="20" t="str">
+      <c r="A18" s="19" t="str">
         <f>HYPERLINK("https://www.analog.com/zh/ADAU1772#details", "ADAU1772")</f>
         <v>ADAU1772</v>
       </c>
@@ -9607,7 +9608,7 @@
       </c>
     </row>
     <row r="19" spans="1:18" ht="14.4">
-      <c r="A19" s="20" t="str">
+      <c r="A19" s="19" t="str">
         <f>HYPERLINK("https://www.analog.com/zh/ADAU1777#details", "ADAU1777")</f>
         <v>ADAU1777</v>
       </c>
@@ -9661,7 +9662,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" ht="14.4">
-      <c r="A20" s="20" t="str">
+      <c r="A20" s="19" t="str">
         <f>HYPERLINK("https://www.analog.com/zh/ADAU1787#details", "ADAU1787")</f>
         <v>ADAU1787</v>
       </c>
@@ -9718,7 +9719,7 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="14.4">
-      <c r="A21" s="20" t="str">
+      <c r="A21" s="19" t="str">
         <f>HYPERLINK("https://www.analog.com/zh/ADAU1788#details", "ADAU1788")</f>
         <v>ADAU1788</v>
       </c>
@@ -9934,7 +9935,7 @@
       </c>
     </row>
     <row r="25" spans="1:18">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="20" t="s">
         <v>79</v>
       </c>
       <c r="B25" s="8"/>
